--- a/Data/Pages/dlgAutomobileInsurance_pagInsurantData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagInsurantData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D154B65D-AD03-49E9-AAD3-DC5E8C3DAAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445B790A-7071-4E2A-92B0-124487AED4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="744" windowWidth="34500" windowHeight="15768" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1464" yWindow="144" windowWidth="35280" windowHeight="15732" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Check defaults</t>
   </si>
@@ -54,18 +54,12 @@
     <t>txtStreetAddress</t>
   </si>
   <si>
-    <t>comCountry</t>
-  </si>
-  <si>
     <t>txtZipCode</t>
   </si>
   <si>
     <t>txtCity</t>
   </si>
   <si>
-    <t>comOccupation</t>
-  </si>
-  <si>
     <t>chkHobbySpeeding</t>
   </si>
   <si>
@@ -100,13 +94,112 @@
   </si>
   <si>
     <t>VIA_Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Schmotz</t>
+  </si>
+  <si>
+    <t>05/20/1968</t>
+  </si>
+  <si>
+    <t>&lt;CHECK&gt;</t>
+  </si>
+  <si>
+    <t>Unter der Muschel 33</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Nauheim</t>
+  </si>
+  <si>
+    <t>selCountry</t>
+  </si>
+  <si>
+    <t>selOccupation</t>
+  </si>
+  <si>
+    <t>Selfemployed</t>
+  </si>
+  <si>
+    <t>www.matthias-schmotz.eu</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>id=firstname</t>
+  </si>
+  <si>
+    <t>id=lastname</t>
+  </si>
+  <si>
+    <t>id=birthdate</t>
+  </si>
+  <si>
+    <t>id=streetaddress</t>
+  </si>
+  <si>
+    <t>id=country</t>
+  </si>
+  <si>
+    <t>id=zipcode</t>
+  </si>
+  <si>
+    <t>id=city</t>
+  </si>
+  <si>
+    <t>id=occupation</t>
+  </si>
+  <si>
+    <t>id=website</t>
+  </si>
+  <si>
+    <t>id=picture</t>
+  </si>
+  <si>
+    <t>id=open</t>
+  </si>
+  <si>
+    <t>id=preventervehicledata</t>
+  </si>
+  <si>
+    <t>id=nextenterproductdata</t>
+  </si>
+  <si>
+    <t>text="Male"</t>
+  </si>
+  <si>
+    <t>text="Female"</t>
+  </si>
+  <si>
+    <t>text="Speeding"</t>
+  </si>
+  <si>
+    <t>text="Bungee Jumping"</t>
+  </si>
+  <si>
+    <t>text="Cliff Diving"</t>
+  </si>
+  <si>
+    <t>text="Skydiving"</t>
+  </si>
+  <si>
+    <t>xpath=//*[@name='Hobbies' and @value='Other']/parent::*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +211,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,15 +247,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -175,15 +279,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>776690</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>189950</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>57813</xdr:rowOff>
+      <xdr:rowOff>103533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -206,7 +310,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="1127760"/>
+          <a:off x="15240" y="1173480"/>
           <a:ext cx="7779470" cy="6976773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -516,37 +620,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="20.5546875" customWidth="1"/>
-    <col min="17" max="19" width="22.77734375" customWidth="1"/>
-    <col min="20" max="20" width="12.109375" customWidth="1"/>
-    <col min="21" max="21" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="20.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="50.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="22.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -572,61 +738,105 @@
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1">
+        <v>64569</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q5" r:id="rId1" xr:uid="{D95EF1E3-3741-4A53-9194-71BA3D921EAD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Pages/dlgAutomobileInsurance_pagInsurantData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagInsurantData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445B790A-7071-4E2A-92B0-124487AED4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9716B124-C8DC-48A6-9044-A1872BC30A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="144" windowWidth="35280" windowHeight="15732" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3456" yWindow="1560" windowWidth="35280" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,11 +257,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -622,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,6 +721,26 @@
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">

--- a/Data/Pages/dlgAutomobileInsurance_pagInsurantData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagInsurantData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612D4E19-6BF3-4685-92A4-238538786109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093ECE45-6FC3-4AF1-B478-247A70C8AE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="2724" windowWidth="22560" windowHeight="12480" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="4788" yWindow="612" windowWidth="32112" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>Check defaults</t>
   </si>
@@ -132,45 +132,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>id=firstname</t>
-  </si>
-  <si>
-    <t>id=lastname</t>
-  </si>
-  <si>
-    <t>id=birthdate</t>
-  </si>
-  <si>
-    <t>id=streetaddress</t>
-  </si>
-  <si>
-    <t>id=country</t>
-  </si>
-  <si>
-    <t>id=zipcode</t>
-  </si>
-  <si>
-    <t>id=city</t>
-  </si>
-  <si>
-    <t>id=occupation</t>
-  </si>
-  <si>
-    <t>id=website</t>
-  </si>
-  <si>
-    <t>id=picture</t>
-  </si>
-  <si>
-    <t>id=open</t>
-  </si>
-  <si>
-    <t>id=preventervehicledata</t>
-  </si>
-  <si>
-    <t>id=nextenterproductdata</t>
-  </si>
-  <si>
     <t>text="Male"</t>
   </si>
   <si>
@@ -193,13 +154,73 @@
   </si>
   <si>
     <t>old_102_AutomobileInsurance_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>//*[@id='firstname']</t>
+  </si>
+  <si>
+    <t>//*[@id='lastname']</t>
+  </si>
+  <si>
+    <t>//*[@id='birthdate']</t>
+  </si>
+  <si>
+    <t>//*[@id='streetaddress']</t>
+  </si>
+  <si>
+    <t>//*[@id='country']</t>
+  </si>
+  <si>
+    <t>//*[@id='zipcode']</t>
+  </si>
+  <si>
+    <t>//*[@id='city']</t>
+  </si>
+  <si>
+    <t>//*[@id='occupation']</t>
+  </si>
+  <si>
+    <t>//*[@id='website']</t>
+  </si>
+  <si>
+    <t>//*[@id='picture']</t>
+  </si>
+  <si>
+    <t>//*[@id='open']</t>
+  </si>
+  <si>
+    <t>//*[@id='preventervehicledata']</t>
+  </si>
+  <si>
+    <t>//*[@id='nextenterproductdata']</t>
+  </si>
+  <si>
+    <t>Insurant Page check for open mandatory fields</t>
+  </si>
+  <si>
+    <t>&lt;MissingMandatoryField&gt;</t>
+  </si>
+  <si>
+    <t>grpHobbies</t>
+  </si>
+  <si>
+    <t>grpGender</t>
+  </si>
+  <si>
+    <t>&lt;NoMandatoryField&gt;</t>
+  </si>
+  <si>
+    <t>//label[text()="Hobbies"]/parent::*/*[@class="group"]</t>
+  </si>
+  <si>
+    <t>//label[text()="Gender"]/parent::*/*[@class="group"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,14 +232,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,20 +272,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -293,15 +304,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>189950</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>103533</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1424390</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>164493</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -324,7 +335,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15240" y="1173480"/>
+          <a:off x="91440" y="1783080"/>
           <a:ext cx="7779470" cy="6976773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -634,122 +645,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="20.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="50.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="22.77734375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.5546875" style="1"/>
+    <col min="2" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="1" customWidth="1"/>
+    <col min="14" max="17" width="20.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="50.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="22.77734375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>47</v>
+      <c r="W1" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -763,58 +784,64 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,9 +852,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>55</v>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -838,39 +865,77 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>64569</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="S5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q5" r:id="rId1" xr:uid="{D95EF1E3-3741-4A53-9194-71BA3D921EAD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Pages/dlgAutomobileInsurance_pagInsurantData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagInsurantData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093ECE45-6FC3-4AF1-B478-247A70C8AE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D00753-CBA6-44EB-A662-3E8D26A996E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4788" yWindow="612" windowWidth="32112" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1632" yWindow="624" windowWidth="37164" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>Check defaults</t>
   </si>
@@ -81,9 +81,6 @@
     <t>butPrevious</t>
   </si>
   <si>
-    <t>txtPicture</t>
-  </si>
-  <si>
     <t>butOpen</t>
   </si>
   <si>
@@ -214,6 +211,75 @@
   </si>
   <si>
     <t>//label[text()="Gender"]/parent::*/*[@class="group"]</t>
+  </si>
+  <si>
+    <t>Insurant Page check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>&lt;HINT This field is mandatory&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HINT Select an option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;NOHINT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HINT Select at least 1 options&gt;</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_003_InsurantData_002_EnterValuesInWrongFormat</t>
+  </si>
+  <si>
+    <t>Insurant Page check error hint formatting</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be at least 2 characters long and must only contain letters&gt;</t>
+  </si>
+  <si>
+    <t>R2D2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>&lt;HINT You must be between 18 and 70 years of age&gt;</t>
+  </si>
+  <si>
+    <t>01/01/1800</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be at least 3 characters long&gt;</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be only digits&gt;</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_003_InsurantData_002_EnterValuesInWrongFormat Part 2</t>
+  </si>
+  <si>
+    <t>Insurant Page check error hint formatting Part 2</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be a number between 4 and 8 digits&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be a valid URL&gt;</t>
+  </si>
+  <si>
+    <t>labPicture</t>
   </si>
 </sst>
 </file>
@@ -275,13 +341,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -304,14 +369,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1424390</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2346410</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>164493</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -335,7 +400,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="91440" y="1783080"/>
+          <a:off x="53340" y="2331720"/>
           <a:ext cx="7779470" cy="6976773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -645,24 +710,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80" style="1" customWidth="1"/>
+    <col min="2" max="3" width="59.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" style="1" customWidth="1"/>
+    <col min="13" max="13" width="46.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="20.5546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="50.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="22.77734375" style="1" customWidth="1"/>
@@ -674,78 +741,78 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -784,7 +851,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -796,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>9</v>
@@ -805,10 +872,10 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>11</v>
@@ -829,10 +896,10 @@
         <v>16</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>17</v>
@@ -846,92 +913,189 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="J5" s="1">
         <v>64569</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="5" t="s">
+      <c r="W5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgAutomobileInsurance_pagInsurantData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagInsurantData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D00753-CBA6-44EB-A662-3E8D26A996E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9130428-7163-4270-8EDE-98022D4D2715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1632" yWindow="624" windowWidth="37164" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3072" yWindow="2100" windowWidth="34764" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -713,7 +713,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Pages/dlgAutomobileInsurance_pagInsurantData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagInsurantData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9130428-7163-4270-8EDE-98022D4D2715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C93E55-3FD1-475F-88FF-C86ABEFB588D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="2100" windowWidth="34764" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="84" yWindow="948" windowWidth="39612" windowHeight="15672" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>Check defaults</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>labPicture</t>
+  </si>
+  <si>
+    <t>//*[@id="enterinsurantdata"]/span[@class="counter"]</t>
+  </si>
+  <si>
+    <t>labMissingMandatoryCounter</t>
   </si>
 </sst>
 </file>
@@ -710,111 +716,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" style="1" customWidth="1"/>
-    <col min="2" max="3" width="59.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="20.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="50.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="22.77734375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="48.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="59.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="20.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="50.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="22.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -836,137 +845,139 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>64569</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
@@ -974,37 +985,38 @@
         <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="N6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="B7"/>
       <c r="C7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1012,89 +1024,96 @@
         <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8"/>
+      <c r="C8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="B9"/>
       <c r="C9" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="B10"/>
+      <c r="K10" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="B11"/>
+      <c r="K11" s="1" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Data/Pages/dlgAutomobileInsurance_pagInsurantData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagInsurantData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C93E55-3FD1-475F-88FF-C86ABEFB588D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36282A9A-DF82-418A-82AA-3710C789F38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="84" yWindow="948" windowWidth="39612" windowHeight="15672" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="588" yWindow="1392" windowWidth="33888" windowHeight="13680" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -719,7 +719,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
